--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromcode/sample90-headerinfo-built-in-functions.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromcode/sample90-headerinfo-built-in-functions.xlsx
@@ -279,22 +279,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="10">
-        <v>42760.0393643056</v>
+        <v>42819.5996571412</v>
       </c>
       <c r="C3" s="10">
-        <v>42760.0393643056</v>
+        <v>42819.5996571412</v>
       </c>
       <c r="D3" s="10">
-        <v>42760.0393643056</v>
+        <v>42819.5996571412</v>
       </c>
       <c r="E3" s="10">
-        <v>42760.0393643056</v>
+        <v>42819.5996571412</v>
       </c>
       <c r="F3" s="10">
-        <v>42760.0393643056</v>
+        <v>42819.5996571412</v>
       </c>
       <c r="G3" s="10">
-        <v>42760.0393643056</v>
+        <v>42819.5996571412</v>
       </c>
     </row>
     <row r="5">

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromcode/sample90-headerinfo-built-in-functions.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromcode/sample90-headerinfo-built-in-functions.xlsx
@@ -279,22 +279,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="10">
-        <v>42819.5996571412</v>
+        <v>43199.562142037</v>
       </c>
       <c r="C3" s="10">
-        <v>42819.5996571412</v>
+        <v>43199.562142037</v>
       </c>
       <c r="D3" s="10">
-        <v>42819.5996571412</v>
+        <v>43199.562142037</v>
       </c>
       <c r="E3" s="10">
-        <v>42819.5996571412</v>
+        <v>43199.562142037</v>
       </c>
       <c r="F3" s="10">
-        <v>42819.5996571412</v>
+        <v>43199.562142037</v>
       </c>
       <c r="G3" s="10">
-        <v>42819.5996571412</v>
+        <v>43199.562142037</v>
       </c>
     </row>
     <row r="5">

--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromcode/sample90-headerinfo-built-in-functions.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromcode/sample90-headerinfo-built-in-functions.xlsx
@@ -17,12 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>EPPlus demo samples</t>
   </si>
   <si>
     <t>Date:</t>
+  </si>
+  <si>
+    <t>{Bind:GetCurrentDatetime}</t>
   </si>
   <si>
     <t>Id</t>
@@ -151,7 +154,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
@@ -159,32 +162,59 @@
     <xf numFmtId="49" fontId="2" fillId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -192,43 +222,79 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="3">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="6">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="7">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="8">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="10">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" xfId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="6">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="7">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="9">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="10">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="11">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="12">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="13">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="14">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="16">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="17">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" xfId="18">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" xfId="19">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="20">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="ValueTextStyle" xfId="3"/>
-    <cellStyle name="NumericStandardStyle" xfId="4"/>
-    <cellStyle name="NumericStandardWithBorderStyle" xfId="5"/>
-    <cellStyle name="NumericWithoutDecimalsStyle" xfId="6"/>
-    <cellStyle name="NumericWithoutDecimalsWithBorderStyle" xfId="7"/>
-    <cellStyle name="EmptyLineStyle" xfId="8"/>
-    <cellStyle name="TitleLineStyle" xfId="9"/>
-    <cellStyle name="FirstLineStyle" xfId="10"/>
+    <cellStyle name="HeaderStyle_Alternate" xfId="3"/>
+    <cellStyle name="ValueTextStyle" xfId="4"/>
+    <cellStyle name="ValueTextStyle_Alternate" xfId="5"/>
+    <cellStyle name="NumericStandardStyle" xfId="6"/>
+    <cellStyle name="NumericStandardStyle_Alternate" xfId="7"/>
+    <cellStyle name="NumericStandardWithBorderStyle" xfId="8"/>
+    <cellStyle name="NumericStandardWithBorderStyle_Alternate" xfId="9"/>
+    <cellStyle name="NumericWithoutDecimalsStyle" xfId="10"/>
+    <cellStyle name="NumericWithoutDecimalsStyle_Alternate" xfId="11"/>
+    <cellStyle name="NumericWithoutDecimalsWithBorderStyle" xfId="12"/>
+    <cellStyle name="NumericWithoutDecimalsWithBorderStyle_Alternate" xfId="13"/>
+    <cellStyle name="EmptyLineStyle" xfId="14"/>
+    <cellStyle name="EmptyLineStyle_Alternate" xfId="15"/>
+    <cellStyle name="TitleLineStyle" xfId="16"/>
+    <cellStyle name="TitleLineStyle_Alternate" xfId="17"/>
+    <cellStyle name="FirstLineStyle" xfId="18"/>
+    <cellStyle name="FirstLineStyle_Alternate" xfId="19"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -243,172 +309,172 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
-        <v>43199.562142037</v>
-      </c>
-      <c r="C3" s="10">
-        <v>43199.562142037</v>
-      </c>
-      <c r="D3" s="10">
-        <v>43199.562142037</v>
-      </c>
-      <c r="E3" s="10">
-        <v>43199.562142037</v>
-      </c>
-      <c r="F3" s="10">
-        <v>43199.562142037</v>
-      </c>
-      <c r="G3" s="10">
-        <v>43199.562142037</v>
+      <c r="B3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10">
+        <v>37</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.9900000095367432</v>
+      </c>
+      <c r="F6" s="6">
+        <v>147.6300048828125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3" t="s">
+      <c r="E7" s="7">
+        <v>12.100000381469727</v>
+      </c>
+      <c r="F7" s="7">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
+        <v>15.369999885559082</v>
+      </c>
+      <c r="F8" s="6">
+        <v>184.44000244140625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="11">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3.9900000095367432</v>
-      </c>
-      <c r="F6" s="4">
-        <v>147.6300048828125</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>12.100000381469727</v>
-      </c>
-      <c r="F7" s="4">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4">
-        <v>15.369999885559082</v>
-      </c>
-      <c r="F8" s="4">
-        <v>184.44000244140625</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>23.479999542236328</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>164.36000061035156</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12">
         <f>SUBTOTAL(109,D6:D10)</f>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <f>SUBTOTAL(109,E6:E10)</f>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="8">
         <f>SUBTOTAL(109,F6:F10)</f>
       </c>
     </row>
